--- a/doc/湖南健康人才网功能需求列表.xlsx
+++ b/doc/湖南健康人才网功能需求列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="功能列表" sheetId="1" r:id="rId1"/>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政策法规</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>培训风采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教育培训</t>
   </si>
   <si>
@@ -557,14 +549,6 @@
   </si>
   <si>
     <t>网站内注册用户的站内消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容参考http://www.hnjkrcw.com/news/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容参考http://www.hnjkrcw.com/news/index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1434,6 +1418,22 @@
   </si>
   <si>
     <t>广告位ID、广告位类型、广告位名称、广告位图片、广告位地址、备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容参考http://www.hnjkrcw.com/news/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训项目维护管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策法规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训风采</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,7 +1480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1586,11 +1586,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1632,6 +1663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1677,7 +1709,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1981,27 +2021,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2012,627 +2052,628 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>118</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="32"/>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="20"/>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>34</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="18"/>
+      <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="18"/>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="18"/>
+      <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="18"/>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="4" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="18"/>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="18"/>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="18"/>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+    <row r="45" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
       <c r="B45" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="27"/>
+      <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="27"/>
+      <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="27"/>
+      <c r="B53" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C53" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="27"/>
+      <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="18"/>
+      <c r="B57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
       <c r="B58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="4" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="18"/>
+      <c r="B59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="19"/>
+      <c r="B60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="C62" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="18"/>
+      <c r="B63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="18"/>
+      <c r="B64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="B66" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="A55:A60"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="A62:A65"/>
@@ -2640,13 +2681,14 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2658,20 +2700,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="71.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="71.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2679,1146 +2721,1151 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="18"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="18"/>
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E18" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="18"/>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="19"/>
+      <c r="C20" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="18"/>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="17"/>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="1" t="s">
+    <row r="23" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="19"/>
+      <c r="C23" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="18"/>
-      <c r="C20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="17"/>
-      <c r="C22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="18"/>
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="20"/>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="21"/>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="21"/>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="21"/>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>240</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E34" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="1" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="2"/>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="18"/>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C42" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="18"/>
       <c r="B44" s="2"/>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="18"/>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="18"/>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="18"/>
       <c r="B48" s="2"/>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="18"/>
       <c r="B49" s="2"/>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="18"/>
       <c r="B50" s="2"/>
       <c r="C50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="18"/>
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="18"/>
+      <c r="B52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="18"/>
+      <c r="B53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="55" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="18"/>
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="18"/>
       <c r="B58" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="18"/>
       <c r="B59" s="2"/>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="18"/>
       <c r="B60" s="2"/>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="18"/>
       <c r="B61" s="2"/>
       <c r="C61" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="18"/>
       <c r="B62" s="2"/>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="18"/>
       <c r="B63" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="18"/>
       <c r="B64" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="18"/>
+      <c r="B65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="19"/>
+      <c r="B66" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C66" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" t="s">
-        <v>233</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C66" t="s">
-        <v>269</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="2"/>
       <c r="C71" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="2"/>
       <c r="C72" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="2"/>
       <c r="C73" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="2"/>
       <c r="C76" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="2"/>
       <c r="C77" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="2"/>
       <c r="C78" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A79" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A80" s="27"/>
+      <c r="B80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A81" s="27"/>
+      <c r="B81" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="4" t="s">
+      <c r="E81" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" s="27"/>
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E82" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A83" s="27"/>
+      <c r="B83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="2" t="s">
+      <c r="E83" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A84" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
-        <v>122</v>
-      </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A85" s="18"/>
+      <c r="B85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" s="18"/>
+      <c r="B86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A87" s="18"/>
+      <c r="B87" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="18"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A89" s="18"/>
+      <c r="B89" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="18"/>
+      <c r="B90" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A91" s="18"/>
+      <c r="B91" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="19"/>
+      <c r="B92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="140" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A92" s="18"/>
-      <c r="B92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A95" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="10"/>
       <c r="B96" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="13"/>
       <c r="B98" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A99" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A100" s="18"/>
+      <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="19"/>
+      <c r="B102" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="B100" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E100" s="1" t="s">
+      <c r="C102" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>285</v>
+      </c>
+      <c r="B107" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="B101" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="1" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
         <v>289</v>
       </c>
-      <c r="B107" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A41:A54"/>
+    <mergeCell ref="A55:A66"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A84:A92"/>
     <mergeCell ref="A2:A8"/>
@@ -3827,11 +3874,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A41:A54"/>
-    <mergeCell ref="A55:A66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3847,57 +3889,57 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" t="s">
         <v>300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3955,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
